--- a/Banco Central/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Serie</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -629,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2463,6 +2472,75 @@
         <v>0.79</v>
       </c>
     </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>1100000</v>
+      </c>
+      <c r="C81">
+        <v>1071000</v>
+      </c>
+      <c r="D81">
+        <v>1071000</v>
+      </c>
+      <c r="E81">
+        <v>840000</v>
+      </c>
+      <c r="F81">
+        <v>231000</v>
+      </c>
+      <c r="G81">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>900000</v>
+      </c>
+      <c r="C82">
+        <v>1722000</v>
+      </c>
+      <c r="D82">
+        <v>1350000</v>
+      </c>
+      <c r="E82">
+        <v>918000</v>
+      </c>
+      <c r="F82">
+        <v>432000</v>
+      </c>
+      <c r="G82">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>900000</v>
+      </c>
+      <c r="C83">
+        <v>1166000</v>
+      </c>
+      <c r="D83">
+        <v>540000</v>
+      </c>
+      <c r="E83">
+        <v>249000</v>
+      </c>
+      <c r="F83">
+        <v>291000</v>
+      </c>
+      <c r="G83">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/1 mes 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2541,6 +2547,52 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>900000</v>
+      </c>
+      <c r="C84">
+        <v>901400</v>
+      </c>
+      <c r="D84">
+        <v>900000</v>
+      </c>
+      <c r="E84">
+        <v>638600</v>
+      </c>
+      <c r="F84">
+        <v>261400</v>
+      </c>
+      <c r="G84">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>900000</v>
+      </c>
+      <c r="C85">
+        <v>586000</v>
+      </c>
+      <c r="D85">
+        <v>450000</v>
+      </c>
+      <c r="E85">
+        <v>244000</v>
+      </c>
+      <c r="F85">
+        <v>206000</v>
+      </c>
+      <c r="G85">
+        <v>0.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
